--- a/data/counters.xlsx
+++ b/data/counters.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Данные каналов" sheetId="1" r:id="rId1"/>
+    <sheet name="Электроэнергия на 16.01.2024" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -19,22 +20,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Заводской номер счетчика</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +37,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Заводской номер счетчика</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,28 +70,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>А - активная
-Р - реактивная</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -142,9 +127,6 @@
     <t>TARIF3</t>
   </si>
   <si>
-    <t>CHARACTER</t>
-  </si>
-  <si>
     <t>Тариф 1</t>
   </si>
   <si>
@@ -157,15 +139,170 @@
     <t>Дата</t>
   </si>
   <si>
-    <t>Вид
-энергии</t>
+    <t>ВРУ-1 А+</t>
+  </si>
+  <si>
+    <t>ВРУ-2 А+</t>
+  </si>
+  <si>
+    <t>РУ-1 A+</t>
+  </si>
+  <si>
+    <t>РУ-2  А+</t>
+  </si>
+  <si>
+    <t>ЩУН  А+</t>
+  </si>
+  <si>
+    <t>АВР-А  А+</t>
+  </si>
+  <si>
+    <t>БС А1  А+</t>
+  </si>
+  <si>
+    <t>Зарядная станция  А+</t>
+  </si>
+  <si>
+    <t>КНС  Ввод-2  А+</t>
+  </si>
+  <si>
+    <t>КНС Ввод-1  А+</t>
+  </si>
+  <si>
+    <t>КНС Нагрев  А+</t>
+  </si>
+  <si>
+    <t>Перечень данных , необходимых для работы с БД Energy Control Center на объектах УП "Лебяжий Парк"</t>
+  </si>
+  <si>
+    <t>ТП-3922. Секция 1 A+</t>
+  </si>
+  <si>
+    <t>ТП-3922. Секция 2 A+</t>
+  </si>
+  <si>
+    <t>ЩГП-1. Ввод-1 A+</t>
+  </si>
+  <si>
+    <t>ЩГП-1. Ввод-2  A+</t>
+  </si>
+  <si>
+    <t>Сауна блок Б. Нагреватель</t>
+  </si>
+  <si>
+    <t>Осушитель ОВ 1.1 ТЭНы</t>
+  </si>
+  <si>
+    <t>Блок А Нагреватели? A+</t>
+  </si>
+  <si>
+    <t>Блок А Нагреватели</t>
+  </si>
+  <si>
+    <t>Светодиодный экран МЛП</t>
+  </si>
+  <si>
+    <t>ШР-1. Шлагбаум</t>
+  </si>
+  <si>
+    <t>ШР-2. Шлагбаум</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>п. 1221 Постирочная</t>
+  </si>
+  <si>
+    <t>Базовая станция А1  A+</t>
+  </si>
+  <si>
+    <t>Базовая станция МТС</t>
+  </si>
+  <si>
+    <t>Хладоцентр A+</t>
+  </si>
+  <si>
+    <t>ТП-3923 Секция-1  A+</t>
+  </si>
+  <si>
+    <t>ТП-3923 Секция-2 A+</t>
+  </si>
+  <si>
+    <t>ЩГП-2  Ввод-1 A+</t>
+  </si>
+  <si>
+    <t>ЩГП-2  Ввод-2 A+</t>
+  </si>
+  <si>
+    <t>СПА комплекс. Нагрев А+</t>
+  </si>
+  <si>
+    <t>Вентиляция 9-РПВ А+</t>
+  </si>
+  <si>
+    <t>Освещение  ЩО-6, ЩО-5   А+</t>
+  </si>
+  <si>
+    <t>Розетки Олимпия 1.14РП  А+</t>
+  </si>
+  <si>
+    <t>Осв.залов ЩО-9  A+</t>
+  </si>
+  <si>
+    <t>Кафе A+</t>
+  </si>
+  <si>
+    <t>Освещение ЩАО-4, ЩАО-5  А+</t>
+  </si>
+  <si>
+    <t>Тренажеры 2001   А+</t>
+  </si>
+  <si>
+    <t>Игровая комната   А+</t>
+  </si>
+  <si>
+    <t>Тренажеры 2002,2003   А+</t>
+  </si>
+  <si>
+    <t>Освещение ЩАО-6   А+</t>
+  </si>
+  <si>
+    <t>Освещение ЩО-8   А+</t>
+  </si>
+  <si>
+    <t>Показания счетчиков по каналам (Электроэнергия)</t>
+  </si>
+  <si>
+    <t>Объект Лебяжий Парк ( №1 )</t>
+  </si>
+  <si>
+    <t>Устройство ТП-3922 ( №1 )  Прибор № 1</t>
+  </si>
+  <si>
+    <t>Показания счетчиков за Январь  2024 г.</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Каналы</t>
+  </si>
+  <si>
+    <t>Сер. №</t>
+  </si>
+  <si>
+    <t>Kt</t>
+  </si>
+  <si>
+    <t>16-е в 00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,16 +327,46 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -222,11 +389,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -241,10 +542,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -260,6 +594,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>493014</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>84439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="1162050"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,302 +926,2731 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K19"/>
+  <dimension ref="A2:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" customWidth="1"/>
-    <col min="10" max="10" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="11" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7">
+        <v>18085116</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="7">
+        <v>19092126</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="D9" s="7">
+        <v>19091679</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7">
+        <v>18085114</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="7">
+        <v>19092128</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="7">
+        <v>19091678</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7">
+        <v>18085113</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="7">
+        <v>19092127</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7">
+        <v>19091895</v>
+      </c>
+      <c r="E15" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="7">
+        <v>18085115</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="7">
+        <v>19092125</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="7">
+        <v>19092033</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
         <v>17</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="C19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="7">
+        <v>18080690</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="7">
+        <v>19093981</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>17</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="7">
+        <v>19093537</v>
+      </c>
+      <c r="E21" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="C22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="7">
+        <v>18085424</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
         <v>19</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="C23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="7">
+        <v>18083596</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
         <v>21</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="C24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19094329</v>
+      </c>
+      <c r="E24" s="7">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <v>21</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="7">
+        <v>19090882</v>
+      </c>
+      <c r="E25" s="7">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>23</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="7">
+        <v>18080693</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
+        <v>23</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="7">
+        <v>19094330</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
+        <v>24</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="7">
+        <v>20107126</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
+        <v>25</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="7">
+        <v>18087625</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
+        <v>25</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="7">
+        <v>19094836</v>
+      </c>
+      <c r="E30" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
+        <v>25</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="7">
+        <v>19094529</v>
+      </c>
+      <c r="E31" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
+        <v>26</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="7">
+        <v>18085422</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
+        <v>27</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="7">
+        <v>18085423</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
+        <v>28</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="7">
+        <v>18085421</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="7">
+        <v>29</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="7">
+        <v>20098831</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="7">
+        <v>29</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="7">
+        <v>19060919</v>
+      </c>
+      <c r="E36" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="7">
+        <v>29</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="7">
+        <v>19096044</v>
+      </c>
+      <c r="E37" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
+        <v>33</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="7">
+        <v>19087954</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="7">
+        <v>33</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="7">
+        <v>19094333</v>
+      </c>
+      <c r="E39" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="7">
+        <v>37</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="7">
+        <v>18086745</v>
+      </c>
+      <c r="E40" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="7">
+        <v>40</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="7">
+        <v>19093473</v>
+      </c>
+      <c r="E41" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="7">
+        <v>41</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="7">
+        <v>19094332</v>
+      </c>
+      <c r="E42" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="7">
+        <v>44</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="7">
+        <v>20104810</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="7">
+        <v>44</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="7">
+        <v>20104814</v>
+      </c>
+      <c r="E44" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="7">
+        <v>48</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="7">
+        <v>19094331</v>
+      </c>
+      <c r="E45" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="7">
+        <v>52</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="7">
+        <v>18080692</v>
+      </c>
+      <c r="E46" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="7">
+        <v>53</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="7">
+        <v>18085423</v>
+      </c>
+      <c r="E47" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="7">
+        <v>54</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="7">
+        <v>19089986</v>
+      </c>
+      <c r="E48" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="7">
+        <v>55</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="7">
+        <v>18087437</v>
+      </c>
+      <c r="E49" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="7">
+        <v>56</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="7">
+        <v>19094838</v>
+      </c>
+      <c r="E50" s="7">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A7:L54">
+    <sortCondition ref="E7:E54"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E186"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="16">
+        <v>18085116</v>
+      </c>
+      <c r="D8" s="16">
+        <v>600</v>
+      </c>
+      <c r="E8" s="17">
+        <v>11516.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19">
+        <v>5230.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19">
+        <v>2294.7800000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21">
+        <v>2578.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="16">
+        <v>19092126</v>
+      </c>
+      <c r="D12" s="16">
+        <v>600</v>
+      </c>
+      <c r="E12" s="17">
+        <v>4345.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19">
+        <v>1560.76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19">
+        <v>895.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21">
+        <v>1047.5999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="16">
+        <v>19091679</v>
+      </c>
+      <c r="D16" s="16">
+        <v>40</v>
+      </c>
+      <c r="E16" s="17">
+        <v>13825.46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19">
+        <v>4506.8500000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19">
+        <v>2219.5500000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21">
+        <v>3278.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>5</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="16">
+        <v>18085114</v>
+      </c>
+      <c r="D20" s="16">
+        <v>600</v>
+      </c>
+      <c r="E20" s="17">
+        <v>2036.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19">
+        <v>794.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19">
+        <v>382.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21">
+        <v>472.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>5</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="16">
+        <v>19092128</v>
+      </c>
+      <c r="D24" s="16">
+        <v>600</v>
+      </c>
+      <c r="E24" s="17">
+        <v>7615.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19">
+        <v>3286.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19">
+        <v>1551.17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21">
+        <v>1718.18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>5</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="16">
+        <v>19091678</v>
+      </c>
+      <c r="D28" s="16">
+        <v>40</v>
+      </c>
+      <c r="E28" s="17">
+        <v>20848.240000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19">
+        <v>4234.2700000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19">
+        <v>2106.48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21">
+        <v>5175.21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>9</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="16">
+        <v>18085113</v>
+      </c>
+      <c r="D32" s="16">
+        <v>20</v>
+      </c>
+      <c r="E32" s="17">
+        <v>2489.2800000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19">
+        <v>1228.9000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19">
+        <v>530.22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21">
+        <v>537.54999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <v>9</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="16">
+        <v>19092127</v>
+      </c>
+      <c r="D36" s="16">
+        <v>60</v>
+      </c>
+      <c r="E36" s="17">
+        <v>112.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="19">
+        <v>57.42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="19">
+        <v>24.04</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21">
+        <v>23.69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <v>9</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="16">
+        <v>19091895</v>
+      </c>
+      <c r="D40" s="16">
+        <v>1</v>
+      </c>
+      <c r="E40" s="17">
+        <v>12820.87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="19">
+        <v>3604.83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="19">
+        <v>559.22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21">
+        <v>3321.59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>13</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="16">
+        <v>18085115</v>
+      </c>
+      <c r="D44" s="16">
+        <v>20</v>
+      </c>
+      <c r="E44" s="17">
+        <v>779.08</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="19">
+        <v>377.19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="19">
+        <v>164.36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21">
+        <v>171.08</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <v>13</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="16">
+        <v>19092125</v>
+      </c>
+      <c r="D48" s="16">
+        <v>60</v>
+      </c>
+      <c r="E48" s="17">
+        <v>61.33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="19">
+        <v>30.11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="19">
+        <v>13.27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <v>13</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="16">
+        <v>19092033</v>
+      </c>
+      <c r="D52" s="16">
+        <v>1</v>
+      </c>
+      <c r="E52" s="17">
+        <v>16628.34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="19">
+        <v>7287.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="19">
+        <v>2934.66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="21">
+        <v>3726.07</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
+        <v>17</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="16">
+        <v>18080690</v>
+      </c>
+      <c r="D56" s="16">
+        <v>1</v>
+      </c>
+      <c r="E56" s="17">
+        <v>28834.04</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="19">
+        <v>661.69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="21">
+        <v>20766.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
+        <v>17</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="16">
+        <v>19093981</v>
+      </c>
+      <c r="D60" s="16">
+        <v>30</v>
+      </c>
+      <c r="E60" s="17">
+        <v>17918.95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="19">
+        <v>1285.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="21">
+        <v>3435.21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
+        <v>17</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="16">
+        <v>19093537</v>
+      </c>
+      <c r="D64" s="16">
+        <v>1</v>
+      </c>
+      <c r="E64" s="17">
+        <v>89357.02</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="19">
+        <v>22909.45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="21">
+        <v>23176.98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
+        <v>18</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="16">
+        <v>18085424</v>
+      </c>
+      <c r="D68" s="16">
+        <v>1</v>
+      </c>
+      <c r="E68" s="17">
+        <v>948687.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="19">
+        <v>391762.61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="21">
+        <v>170237.67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="16">
+        <v>19</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="16">
+        <v>18083596</v>
+      </c>
+      <c r="D72" s="16">
+        <v>40</v>
+      </c>
+      <c r="E72" s="17">
+        <v>1611.11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="19">
+        <v>471.91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="21">
+        <v>237.59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="16">
+        <v>21</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="16">
+        <v>19094329</v>
+      </c>
+      <c r="D76" s="16">
+        <v>1</v>
+      </c>
+      <c r="E76" s="17">
+        <v>334471.90999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="19">
+        <v>130984.76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="21">
+        <v>60554.25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="16">
+        <v>21</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="16">
+        <v>19090882</v>
+      </c>
+      <c r="D80" s="16">
+        <v>1</v>
+      </c>
+      <c r="E80" s="17">
+        <v>1853.34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="19">
+        <v>937.07</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="19">
+        <v>393.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="21">
+        <v>398.67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="16">
+        <v>23</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" s="16">
+        <v>18080693</v>
+      </c>
+      <c r="D84" s="16">
+        <v>1</v>
+      </c>
+      <c r="E84" s="17">
+        <v>78549.77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="19">
+        <v>30694.19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="20"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="21">
+        <v>13737.42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="16">
+        <v>23</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="16">
+        <v>19094330</v>
+      </c>
+      <c r="D88" s="16">
+        <v>1</v>
+      </c>
+      <c r="E88" s="17">
+        <v>40313.14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="18"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="19">
+        <v>11170.82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="21">
+        <v>8037.98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="16">
+        <v>24</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" s="16">
+        <v>20107126</v>
+      </c>
+      <c r="D92" s="16">
+        <v>1</v>
+      </c>
+      <c r="E92" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="18"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="18"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="16">
+        <v>25</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" s="16">
+        <v>18087625</v>
+      </c>
+      <c r="D96" s="16">
+        <v>1</v>
+      </c>
+      <c r="E96" s="17">
+        <v>98.66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="18"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="19">
+        <v>49.65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="19">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="20"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="21">
+        <v>28.14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="16">
+        <v>25</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" s="16">
+        <v>19094836</v>
+      </c>
+      <c r="D100" s="16">
+        <v>1</v>
+      </c>
+      <c r="E100" s="17">
+        <v>17142.990000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="18"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="19">
+        <v>3281.14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="18"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="20"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="21">
+        <v>3066.16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="16">
+        <v>25</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" s="16">
+        <v>19094529</v>
+      </c>
+      <c r="D104" s="16">
+        <v>1</v>
+      </c>
+      <c r="E104" s="17">
+        <v>5222.13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="18"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="19">
+        <v>2556.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="18"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="19">
+        <v>1105.28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="20"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="21">
+        <v>1127.52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="16">
+        <v>26</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C108" s="16">
+        <v>18085422</v>
+      </c>
+      <c r="D108" s="16">
+        <v>1</v>
+      </c>
+      <c r="E108" s="17">
+        <v>1904.01</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="18"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="19">
+        <v>404.48</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="18"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="19">
+        <v>250.19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="20"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="21">
+        <v>546.96</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="16">
+        <v>27</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C112" s="16">
+        <v>18085423</v>
+      </c>
+      <c r="D112" s="16">
+        <v>1</v>
+      </c>
+      <c r="E112" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="18"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="18"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="20"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="16">
+        <v>28</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C116" s="16">
+        <v>18085421</v>
+      </c>
+      <c r="D116" s="16">
+        <v>1</v>
+      </c>
+      <c r="E116" s="17">
+        <v>111051.31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="18"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="19">
+        <v>28362.93</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="18"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="20"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="21">
+        <v>30982.15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="16">
+        <v>29</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C120" s="16">
+        <v>20098831</v>
+      </c>
+      <c r="D120" s="16">
+        <v>1</v>
+      </c>
+      <c r="E120" s="17">
+        <v>91606.02</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="18"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="19">
+        <v>41342.49</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="18"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="19">
+        <v>28284.23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="20"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="21">
+        <v>21393.09</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="16">
+        <v>29</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C124" s="16">
+        <v>19060919</v>
+      </c>
+      <c r="D124" s="16">
+        <v>1</v>
+      </c>
+      <c r="E124" s="17">
+        <v>10120.629999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="18"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="19">
+        <v>1601.75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="18"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="20"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="16">
+        <v>29</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="16">
+        <v>19096044</v>
+      </c>
+      <c r="D128" s="16">
+        <v>1</v>
+      </c>
+      <c r="E128" s="17">
+        <v>1508.15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="18"/>
+      <c r="B129" s="18"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="19">
+        <v>1551.86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="18"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="19">
+        <v>237.13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="20"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="21">
+        <v>265.79000000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="16">
+        <v>33</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C132" s="16">
+        <v>19087954</v>
+      </c>
+      <c r="D132" s="16">
+        <v>1</v>
+      </c>
+      <c r="E132" s="17">
+        <v>18167.080000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="18"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="19">
+        <v>8989.11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="18"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="19">
+        <v>3850.24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="20"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="21">
+        <v>3924.58</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="16">
+        <v>33</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C136" s="16">
+        <v>19094333</v>
+      </c>
+      <c r="D136" s="16">
+        <v>1</v>
+      </c>
+      <c r="E136" s="17"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="18"/>
+      <c r="B137" s="18"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="19"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="18"/>
+      <c r="B138" s="18"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="19"/>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="20"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="21"/>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="16">
+        <v>37</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C140" s="16">
+        <v>18086745</v>
+      </c>
+      <c r="D140" s="16">
+        <v>1</v>
+      </c>
+      <c r="E140" s="17"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="18"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="19"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="18"/>
+      <c r="B142" s="18"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="19"/>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="20"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="21"/>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="16">
+        <v>40</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C144" s="16">
+        <v>19093473</v>
+      </c>
+      <c r="D144" s="16">
+        <v>30</v>
+      </c>
+      <c r="E144" s="17">
+        <v>7303.92</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="18"/>
+      <c r="B145" s="18"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="19">
+        <v>2211.56</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="18"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="19">
+        <v>1869.35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="20"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="21">
+        <v>2221.88</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="16">
+        <v>41</v>
+      </c>
+      <c r="B148" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C148" s="16">
+        <v>19094332</v>
+      </c>
+      <c r="D148" s="16">
+        <v>1</v>
+      </c>
+      <c r="E148" s="17">
+        <v>3753.23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="18"/>
+      <c r="B149" s="18"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="18"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="20"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="16">
+        <v>44</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C152" s="16">
+        <v>20104810</v>
+      </c>
+      <c r="D152" s="16">
+        <v>240</v>
+      </c>
+      <c r="E152" s="17">
+        <v>13456.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="18"/>
+      <c r="B153" s="18"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="19">
+        <v>5983.11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="18"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="19">
+        <v>2676.81</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="20"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="21">
+        <v>3998.38</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="16">
+        <v>44</v>
+      </c>
+      <c r="B156" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C156" s="16">
+        <v>20104814</v>
+      </c>
+      <c r="D156" s="16">
+        <v>240</v>
+      </c>
+      <c r="E156" s="17">
+        <v>9253.1200000000008</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="18"/>
+      <c r="B157" s="18"/>
+      <c r="C157" s="18"/>
+      <c r="D157" s="18"/>
+      <c r="E157" s="19">
+        <v>4647.17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="18"/>
+      <c r="B158" s="18"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="19">
+        <v>1835.21</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="20"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="21">
+        <v>2757.65</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="16">
+        <v>48</v>
+      </c>
+      <c r="B160" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C160" s="16">
+        <v>19094331</v>
+      </c>
+      <c r="D160" s="16">
+        <v>1</v>
+      </c>
+      <c r="E160" s="17">
+        <v>5612.03</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="18"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="18"/>
+      <c r="E161" s="19">
+        <v>2052.6999999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="18"/>
+      <c r="B162" s="18"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="18"/>
+      <c r="E162" s="19">
+        <v>1146.8599999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="20"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="21">
+        <v>1718.72</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="16">
+        <v>52</v>
+      </c>
+      <c r="B164" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C164" s="16">
+        <v>18080692</v>
+      </c>
+      <c r="D164" s="16">
+        <v>1</v>
+      </c>
+      <c r="E164" s="17">
+        <v>29034.29</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="18"/>
+      <c r="B165" s="18"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="18"/>
+      <c r="E165" s="19">
+        <v>2330.9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="18"/>
+      <c r="B166" s="18"/>
+      <c r="C166" s="18"/>
+      <c r="D166" s="18"/>
+      <c r="E166" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="20"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="21">
+        <v>6692.38</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="16">
+        <v>53</v>
+      </c>
+      <c r="B168" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C168" s="16">
+        <v>18085423</v>
+      </c>
+      <c r="D168" s="16">
+        <v>1</v>
+      </c>
+      <c r="E168" s="17">
+        <v>12300.37</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="18"/>
+      <c r="B169" s="18"/>
+      <c r="C169" s="18"/>
+      <c r="D169" s="18"/>
+      <c r="E169" s="19">
+        <v>1475.65</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="18"/>
+      <c r="B170" s="18"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="18"/>
+      <c r="E170" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="20"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="21">
+        <v>3080.79</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="16">
+        <v>54</v>
+      </c>
+      <c r="B172" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C172" s="16">
+        <v>19089986</v>
+      </c>
+      <c r="D172" s="16">
+        <v>1</v>
+      </c>
+      <c r="E172" s="17">
+        <v>8652.18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="18"/>
+      <c r="B173" s="18"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="18"/>
+      <c r="E173" s="19">
+        <v>1082.1099999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="18"/>
+      <c r="B174" s="18"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="19">
+        <v>1917.4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="20"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="21">
+        <v>3070.11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="16">
+        <v>55</v>
+      </c>
+      <c r="B176" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C176" s="16">
+        <v>18087437</v>
+      </c>
+      <c r="D176" s="16">
+        <v>1</v>
+      </c>
+      <c r="E176" s="17">
+        <v>3662.4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="18"/>
+      <c r="B177" s="18"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="18"/>
+      <c r="E177" s="19">
+        <v>762.63</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="18"/>
+      <c r="B178" s="18"/>
+      <c r="C178" s="18"/>
+      <c r="D178" s="18"/>
+      <c r="E178" s="19">
+        <v>622.84</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="20"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="21">
+        <v>1368.46</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="16">
+        <v>56</v>
+      </c>
+      <c r="B180" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C180" s="16">
+        <v>19094838</v>
+      </c>
+      <c r="D180" s="16">
+        <v>1</v>
+      </c>
+      <c r="E180" s="17">
+        <v>10037.16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="18"/>
+      <c r="B181" s="18"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="18"/>
+      <c r="E181" s="19">
+        <v>2952.46</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="18"/>
+      <c r="B182" s="18"/>
+      <c r="C182" s="18"/>
+      <c r="D182" s="18"/>
+      <c r="E182" s="19">
+        <v>2132.59</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="20"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="20"/>
+      <c r="E183" s="21">
+        <v>2485.91</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="22"/>
+      <c r="B184" s="22"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="22"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="22"/>
+      <c r="B185" s="22"/>
+      <c r="C185" s="22"/>
+      <c r="D185" s="22"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="22"/>
+      <c r="B186" s="22"/>
+      <c r="C186" s="22"/>
+      <c r="D186" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>